--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Tlr2</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H2">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I2">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J2">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.90659082210106</v>
+        <v>1.9078655</v>
       </c>
       <c r="N2">
-        <v>1.90659082210106</v>
+        <v>3.815731</v>
       </c>
       <c r="O2">
-        <v>0.01300710905667956</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P2">
-        <v>0.01300710905667956</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q2">
-        <v>11.30800788515555</v>
+        <v>11.88851567779625</v>
       </c>
       <c r="R2">
-        <v>11.30800788515555</v>
+        <v>47.554062711185</v>
       </c>
       <c r="S2">
-        <v>7.850658728527541E-05</v>
+        <v>7.459985045451572E-05</v>
       </c>
       <c r="T2">
-        <v>7.850658728527541E-05</v>
+        <v>3.364186007908746E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H3">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I3">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J3">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>62.7743674168353</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N3">
-        <v>62.7743674168353</v>
+        <v>4.007239</v>
       </c>
       <c r="O3">
-        <v>0.4282581419620247</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P3">
-        <v>0.4282581419620247</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q3">
-        <v>372.3153565550936</v>
+        <v>8.323459502460834</v>
       </c>
       <c r="R3">
-        <v>372.3153565550936</v>
+        <v>49.940757014765</v>
       </c>
       <c r="S3">
-        <v>0.00258482381104555</v>
+        <v>5.222929850759102E-05</v>
       </c>
       <c r="T3">
-        <v>0.00258482381104555</v>
+        <v>3.53303138353994E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H4">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I4">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J4">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.1811582375426</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N4">
-        <v>80.1811582375426</v>
+        <v>193.99091</v>
       </c>
       <c r="O4">
-        <v>0.5470104321268556</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P4">
-        <v>0.5470104321268556</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q4">
-        <v>475.5551946861186</v>
+        <v>402.9396507746417</v>
       </c>
       <c r="R4">
-        <v>475.5551946861186</v>
+        <v>2417.63790464785</v>
       </c>
       <c r="S4">
-        <v>0.003301573166534661</v>
+        <v>0.002528426466739125</v>
       </c>
       <c r="T4">
-        <v>0.003301573166534661</v>
+        <v>0.001710344636672462</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,123 +714,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.9310092936953</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H5">
-        <v>5.9310092936953</v>
+        <v>12.462635</v>
       </c>
       <c r="I5">
-        <v>0.006035667644760753</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J5">
-        <v>0.006035667644760753</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.71855827553021</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N5">
-        <v>1.71855827553021</v>
+        <v>241.87754</v>
       </c>
       <c r="O5">
-        <v>0.01172431685444028</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P5">
-        <v>0.01172431685444028</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q5">
-        <v>10.19278510392664</v>
+        <v>502.4052492863167</v>
       </c>
       <c r="R5">
-        <v>10.19278510392664</v>
+        <v>3014.4314957179</v>
       </c>
       <c r="S5">
-        <v>7.076407989526838E-05</v>
+        <v>0.003152568199436517</v>
       </c>
       <c r="T5">
-        <v>7.076407989526838E-05</v>
+        <v>0.002132542979825853</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>948.793076381778</v>
+        <v>6.231317499999999</v>
       </c>
       <c r="H6">
-        <v>948.793076381778</v>
+        <v>12.462635</v>
       </c>
       <c r="I6">
-        <v>0.9655354407854202</v>
+        <v>0.005876074078676659</v>
       </c>
       <c r="J6">
-        <v>0.9655354407854202</v>
+        <v>0.003958027426185814</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.90659082210106</v>
+        <v>1.745477</v>
       </c>
       <c r="N6">
-        <v>1.90659082210106</v>
+        <v>5.236431</v>
       </c>
       <c r="O6">
-        <v>0.01300710905667956</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P6">
-        <v>0.01300710905667956</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q6">
-        <v>1808.960171502528</v>
+        <v>10.8766213759475</v>
       </c>
       <c r="R6">
-        <v>1808.960171502528</v>
+        <v>65.25972825568499</v>
       </c>
       <c r="S6">
-        <v>0.01255882477638513</v>
+        <v>6.825026353891129E-05</v>
       </c>
       <c r="T6">
-        <v>0.01255882477638513</v>
+        <v>4.616763577301336E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H7">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I7">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J7">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>62.7743674168353</v>
+        <v>1.9078655</v>
       </c>
       <c r="N7">
-        <v>62.7743674168353</v>
+        <v>3.815731</v>
       </c>
       <c r="O7">
-        <v>0.4282581419620247</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P7">
-        <v>0.4282581419620247</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q7">
-        <v>59559.8851793392</v>
+        <v>1935.592198329424</v>
       </c>
       <c r="R7">
-        <v>59559.8851793392</v>
+        <v>11613.55318997654</v>
       </c>
       <c r="S7">
-        <v>0.4134984138692485</v>
+        <v>0.01214574573056109</v>
       </c>
       <c r="T7">
-        <v>0.4134984138692485</v>
+        <v>0.008215944320280659</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H8">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I8">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J8">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>80.1811582375426</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N8">
-        <v>80.1811582375426</v>
+        <v>4.007239</v>
       </c>
       <c r="O8">
-        <v>0.5470104321268556</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P8">
-        <v>0.5470104321268556</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q8">
-        <v>76075.32779205218</v>
+        <v>1355.158517069015</v>
       </c>
       <c r="R8">
-        <v>76075.32779205218</v>
+        <v>12196.42665362113</v>
       </c>
       <c r="S8">
-        <v>0.5281579586978268</v>
+        <v>0.008503552962824667</v>
       </c>
       <c r="T8">
-        <v>0.5281579586978268</v>
+        <v>0.008628294945858908</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,185 +962,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>948.793076381778</v>
+        <v>1014.532837</v>
       </c>
       <c r="H9">
-        <v>948.793076381778</v>
+        <v>3043.598511</v>
       </c>
       <c r="I9">
-        <v>0.9655354407854202</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J9">
-        <v>0.9655354407854202</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.71855827553021</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N9">
-        <v>1.71855827553021</v>
+        <v>193.99091</v>
       </c>
       <c r="O9">
-        <v>0.01172431685444028</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P9">
-        <v>0.01172431685444028</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q9">
-        <v>1630.556193181671</v>
+        <v>65603.38275817057</v>
       </c>
       <c r="R9">
-        <v>1630.556193181671</v>
+        <v>590430.444823535</v>
       </c>
       <c r="S9">
-        <v>0.01132024344195993</v>
+        <v>0.411657996314059</v>
       </c>
       <c r="T9">
-        <v>0.01132024344195993</v>
+        <v>0.4176967703437629</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.2971607106701</v>
+        <v>1014.532837</v>
       </c>
       <c r="H10">
-        <v>1.2971607106701</v>
+        <v>3043.598511</v>
       </c>
       <c r="I10">
-        <v>0.001320050356314381</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J10">
-        <v>0.001320050356314381</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.90659082210106</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N10">
-        <v>1.90659082210106</v>
+        <v>241.87754</v>
       </c>
       <c r="O10">
-        <v>0.01300710905667956</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P10">
-        <v>0.01300710905667956</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q10">
-        <v>2.473154705753701</v>
+        <v>81797.56895426034</v>
       </c>
       <c r="R10">
-        <v>2.473154705753701</v>
+        <v>736178.120588343</v>
       </c>
       <c r="S10">
-        <v>1.717003894488987E-05</v>
+        <v>0.5132757172476465</v>
       </c>
       <c r="T10">
-        <v>1.717003894488987E-05</v>
+        <v>0.520805161833069</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.2971607106701</v>
+        <v>1014.532837</v>
       </c>
       <c r="H11">
-        <v>1.2971607106701</v>
+        <v>3043.598511</v>
       </c>
       <c r="I11">
-        <v>0.001320050356314381</v>
+        <v>0.9566949694766785</v>
       </c>
       <c r="J11">
-        <v>0.001320050356314381</v>
+        <v>0.9666211343617389</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>62.7743674168353</v>
+        <v>1.745477</v>
       </c>
       <c r="N11">
-        <v>62.7743674168353</v>
+        <v>5.236431</v>
       </c>
       <c r="O11">
-        <v>0.4282581419620247</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P11">
-        <v>0.4282581419620247</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q11">
-        <v>81.42844305028804</v>
+        <v>1770.843732728249</v>
       </c>
       <c r="R11">
-        <v>81.42844305028804</v>
+        <v>15937.59359455424</v>
       </c>
       <c r="S11">
-        <v>0.0005653223128915056</v>
+        <v>0.01111195722158746</v>
       </c>
       <c r="T11">
-        <v>0.0005653223128915056</v>
+        <v>0.01127496291876749</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H12">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I12">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J12">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>80.1811582375426</v>
+        <v>1.9078655</v>
       </c>
       <c r="N12">
-        <v>80.1811582375426</v>
+        <v>3.815731</v>
       </c>
       <c r="O12">
-        <v>0.5470104321268556</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P12">
-        <v>0.5470104321268556</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q12">
-        <v>104.0078482017625</v>
+        <v>0.7241316224353332</v>
       </c>
       <c r="R12">
-        <v>104.0078482017625</v>
+        <v>4.344789734612</v>
       </c>
       <c r="S12">
-        <v>0.0007220813158367395</v>
+        <v>4.543890272521835E-06</v>
       </c>
       <c r="T12">
-        <v>0.0007220813158367395</v>
+        <v>3.073697597881435E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,247 +1210,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.2971607106701</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H13">
-        <v>1.2971607106701</v>
+        <v>1.138652</v>
       </c>
       <c r="I13">
-        <v>0.001320050356314381</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J13">
-        <v>0.001320050356314381</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.71855827553021</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N13">
-        <v>1.71855827553021</v>
+        <v>4.007239</v>
       </c>
       <c r="O13">
-        <v>0.01172431685444028</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P13">
-        <v>0.01172431685444028</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q13">
-        <v>2.229246274014749</v>
+        <v>0.5069834113142222</v>
       </c>
       <c r="R13">
-        <v>2.229246274014749</v>
+        <v>4.562850701828</v>
       </c>
       <c r="S13">
-        <v>1.54766886412466E-05</v>
+        <v>3.181295940720162E-06</v>
       </c>
       <c r="T13">
-        <v>1.54766886412466E-05</v>
+        <v>3.227963629626095E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>9.98862028492257</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H14">
-        <v>9.98862028492257</v>
+        <v>1.138652</v>
       </c>
       <c r="I14">
-        <v>0.0101648790760781</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J14">
-        <v>0.0101648790760781</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.90659082210106</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N14">
-        <v>1.90659082210106</v>
+        <v>193.99091</v>
       </c>
       <c r="O14">
-        <v>0.01300710905667956</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P14">
-        <v>0.01300710905667956</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q14">
-        <v>19.04421176068585</v>
+        <v>24.54312640592445</v>
       </c>
       <c r="R14">
-        <v>19.04421176068585</v>
+        <v>220.88813765332</v>
       </c>
       <c r="S14">
-        <v>0.000132215690690508</v>
+        <v>0.0001540069096252084</v>
       </c>
       <c r="T14">
-        <v>0.000132215690690508</v>
+        <v>0.0001562660979188087</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>27</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>9.98862028492257</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H15">
-        <v>9.98862028492257</v>
+        <v>1.138652</v>
       </c>
       <c r="I15">
-        <v>0.0101648790760781</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J15">
-        <v>0.0101648790760781</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>62.7743674168353</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N15">
-        <v>62.7743674168353</v>
+        <v>241.87754</v>
       </c>
       <c r="O15">
-        <v>0.4282581419620247</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P15">
-        <v>0.4282581419620247</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q15">
-        <v>627.0293197529835</v>
+        <v>30.60159385289778</v>
       </c>
       <c r="R15">
-        <v>627.0293197529835</v>
+        <v>275.41434467608</v>
       </c>
       <c r="S15">
-        <v>0.004353192226389868</v>
+        <v>0.0001920234945191387</v>
       </c>
       <c r="T15">
-        <v>0.004353192226389868</v>
+        <v>0.0001948403631386675</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>9.98862028492257</v>
+        <v>0.3795506666666666</v>
       </c>
       <c r="H16">
-        <v>9.98862028492257</v>
+        <v>1.138652</v>
       </c>
       <c r="I16">
-        <v>0.0101648790760781</v>
+        <v>0.0003579127261521251</v>
       </c>
       <c r="J16">
-        <v>0.0101648790760781</v>
+        <v>0.0003616262407493544</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.1811582375426</v>
+        <v>1.745477</v>
       </c>
       <c r="N16">
-        <v>80.1811582375426</v>
+        <v>5.236431</v>
       </c>
       <c r="O16">
-        <v>0.5470104321268556</v>
+        <v>0.01161494266836776</v>
       </c>
       <c r="P16">
-        <v>0.5470104321268556</v>
+        <v>0.01166430416009097</v>
       </c>
       <c r="Q16">
-        <v>800.8991436401045</v>
+        <v>0.6624969590013333</v>
       </c>
       <c r="R16">
-        <v>800.8991436401045</v>
+        <v>5.962472631012</v>
       </c>
       <c r="S16">
-        <v>0.005560294895922714</v>
+        <v>4.157135794536143E-06</v>
       </c>
       <c r="T16">
-        <v>0.005560294895922714</v>
+        <v>4.218118464370754E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,309 +1458,929 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>9.98862028492257</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H17">
-        <v>9.98862028492257</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I17">
-        <v>0.0101648790760781</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J17">
-        <v>0.0101648790760781</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.71855827553021</v>
+        <v>1.9078655</v>
       </c>
       <c r="N17">
-        <v>1.71855827553021</v>
+        <v>3.815731</v>
       </c>
       <c r="O17">
-        <v>0.01172431685444028</v>
+        <v>0.01269552586568416</v>
       </c>
       <c r="P17">
-        <v>0.01172431685444028</v>
+        <v>0.00849965309904553</v>
       </c>
       <c r="Q17">
-        <v>17.16602605178261</v>
+        <v>2.602169553208333</v>
       </c>
       <c r="R17">
-        <v>17.16602605178261</v>
+        <v>15.61301731925</v>
       </c>
       <c r="S17">
-        <v>0.0001191762630750098</v>
+        <v>1.632848580829895E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001191762630750098</v>
+        <v>1.104534321823644E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>16.6501541873884</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H18">
-        <v>16.6501541873884</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I18">
-        <v>0.01694396213742651</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J18">
-        <v>0.01694396213742651</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.90659082210106</v>
+        <v>1.335746333333333</v>
       </c>
       <c r="N18">
-        <v>1.90659082210106</v>
+        <v>4.007239</v>
       </c>
       <c r="O18">
-        <v>0.01300710905667956</v>
+        <v>0.008888468356299806</v>
       </c>
       <c r="P18">
-        <v>0.01300710905667956</v>
+        <v>0.008926242805105003</v>
       </c>
       <c r="Q18">
-        <v>31.74503116024225</v>
+        <v>1.821846686472222</v>
       </c>
       <c r="R18">
-        <v>31.74503116024225</v>
+        <v>16.39662017825</v>
       </c>
       <c r="S18">
-        <v>0.0002203919633737561</v>
+        <v>1.143199824480326E-05</v>
       </c>
       <c r="T18">
-        <v>0.0002203919633737561</v>
+        <v>1.159969875038429E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>16.6501541873884</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H19">
-        <v>16.6501541873884</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I19">
-        <v>0.01694396213742651</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J19">
-        <v>0.01694396213742651</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>62.7743674168353</v>
+        <v>64.66363666666668</v>
       </c>
       <c r="N19">
-        <v>62.7743674168353</v>
+        <v>193.99091</v>
       </c>
       <c r="O19">
-        <v>0.4282581419620247</v>
+        <v>0.430291795659007</v>
       </c>
       <c r="P19">
-        <v>0.4282581419620247</v>
+        <v>0.4321204611562405</v>
       </c>
       <c r="Q19">
-        <v>1045.202896506078</v>
+        <v>88.19581177694444</v>
       </c>
       <c r="R19">
-        <v>1045.202896506078</v>
+        <v>793.7623059924999</v>
       </c>
       <c r="S19">
-        <v>0.007256389742449175</v>
+        <v>0.0005534243758926751</v>
       </c>
       <c r="T19">
-        <v>0.007256389742449175</v>
+        <v>0.000561542777037484</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.6501541873884</v>
+        <v>1.363916666666666</v>
       </c>
       <c r="H20">
-        <v>16.6501541873884</v>
+        <v>4.091749999999999</v>
       </c>
       <c r="I20">
-        <v>0.01694396213742651</v>
+        <v>0.001286160650693063</v>
       </c>
       <c r="J20">
-        <v>0.01694396213742651</v>
+        <v>0.001299505178567438</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>80.1811582375426</v>
+        <v>80.62584666666667</v>
       </c>
       <c r="N20">
-        <v>80.1811582375426</v>
+        <v>241.87754</v>
       </c>
       <c r="O20">
-        <v>0.5470104321268556</v>
+        <v>0.5365092674506414</v>
       </c>
       <c r="P20">
-        <v>0.5470104321268556</v>
+        <v>0.5387893387795181</v>
       </c>
       <c r="Q20">
-        <v>1335.028647578472</v>
+        <v>109.9669360327778</v>
       </c>
       <c r="R20">
-        <v>1335.028647578472</v>
+        <v>989.7024242949999</v>
       </c>
       <c r="S20">
-        <v>0.009268524050734759</v>
+        <v>0.0006900371085271756</v>
       </c>
       <c r="T20">
-        <v>0.009268524050734759</v>
+        <v>0.0007001595359009096</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.363916666666666</v>
+      </c>
+      <c r="H21">
+        <v>4.091749999999999</v>
+      </c>
+      <c r="I21">
+        <v>0.001286160650693063</v>
+      </c>
+      <c r="J21">
+        <v>0.001299505178567438</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.745477</v>
+      </c>
+      <c r="N21">
+        <v>5.236431</v>
+      </c>
+      <c r="O21">
+        <v>0.01161494266836776</v>
+      </c>
+      <c r="P21">
+        <v>0.01166430416009097</v>
+      </c>
+      <c r="Q21">
+        <v>2.380685171583333</v>
+      </c>
+      <c r="R21">
+        <v>21.42616654424999</v>
+      </c>
+      <c r="S21">
+        <v>1.49386822201105E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.515782366042393E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>11.51036533333333</v>
+      </c>
+      <c r="H22">
+        <v>34.531096</v>
+      </c>
+      <c r="I22">
+        <v>0.01085416677473077</v>
+      </c>
+      <c r="J22">
+        <v>0.0109667839124114</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.9078655</v>
+      </c>
+      <c r="N22">
+        <v>3.815731</v>
+      </c>
+      <c r="O22">
+        <v>0.01269552586568416</v>
+      </c>
+      <c r="P22">
+        <v>0.00849965309904553</v>
+      </c>
+      <c r="Q22">
+        <v>21.96022891186266</v>
+      </c>
+      <c r="R22">
+        <v>131.761373471176</v>
+      </c>
+      <c r="S22">
+        <v>0.0001377993550390441</v>
+      </c>
+      <c r="T22">
+        <v>9.321385886769024E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>11.51036533333333</v>
+      </c>
+      <c r="H23">
+        <v>34.531096</v>
+      </c>
+      <c r="I23">
+        <v>0.01085416677473077</v>
+      </c>
+      <c r="J23">
+        <v>0.0109667839124114</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>1.335746333333333</v>
+      </c>
+      <c r="N23">
+        <v>4.007239</v>
+      </c>
+      <c r="O23">
+        <v>0.008888468356299806</v>
+      </c>
+      <c r="P23">
+        <v>0.008926242805105003</v>
+      </c>
+      <c r="Q23">
+        <v>15.37492828932711</v>
+      </c>
+      <c r="R23">
+        <v>138.374354603944</v>
+      </c>
+      <c r="S23">
+        <v>9.647691791119519E-05</v>
+      </c>
+      <c r="T23">
+        <v>9.789217599330357E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>11.51036533333333</v>
+      </c>
+      <c r="H24">
+        <v>34.531096</v>
+      </c>
+      <c r="I24">
+        <v>0.01085416677473077</v>
+      </c>
+      <c r="J24">
+        <v>0.0109667839124114</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>64.66363666666668</v>
+      </c>
+      <c r="N24">
+        <v>193.99091</v>
+      </c>
+      <c r="O24">
+        <v>0.430291795659007</v>
+      </c>
+      <c r="P24">
+        <v>0.4321204611562405</v>
+      </c>
+      <c r="Q24">
+        <v>744.3020818152623</v>
+      </c>
+      <c r="R24">
+        <v>6698.71873633736</v>
+      </c>
+      <c r="S24">
+        <v>0.004670458911881237</v>
+      </c>
+      <c r="T24">
+        <v>0.004738971721632054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>11.51036533333333</v>
+      </c>
+      <c r="H25">
+        <v>34.531096</v>
+      </c>
+      <c r="I25">
+        <v>0.01085416677473077</v>
+      </c>
+      <c r="J25">
+        <v>0.0109667839124114</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>80.62584666666667</v>
+      </c>
+      <c r="N25">
+        <v>241.87754</v>
+      </c>
+      <c r="O25">
+        <v>0.5365092674506414</v>
+      </c>
+      <c r="P25">
+        <v>0.5387893387795181</v>
+      </c>
+      <c r="Q25">
+        <v>928.0329504426489</v>
+      </c>
+      <c r="R25">
+        <v>8352.296553983841</v>
+      </c>
+      <c r="S25">
+        <v>0.005823361065097898</v>
+      </c>
+      <c r="T25">
+        <v>0.005908786252705996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>11.51036533333333</v>
+      </c>
+      <c r="H26">
+        <v>34.531096</v>
+      </c>
+      <c r="I26">
+        <v>0.01085416677473077</v>
+      </c>
+      <c r="J26">
+        <v>0.0109667839124114</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.745477</v>
+      </c>
+      <c r="N26">
+        <v>5.236431</v>
+      </c>
+      <c r="O26">
+        <v>0.01161494266836776</v>
+      </c>
+      <c r="P26">
+        <v>0.01166430416009097</v>
+      </c>
+      <c r="Q26">
+        <v>20.09107795093066</v>
+      </c>
+      <c r="R26">
+        <v>180.819701558376</v>
+      </c>
+      <c r="S26">
+        <v>0.0001260705248014001</v>
+      </c>
+      <c r="T26">
+        <v>0.0001279199032123591</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>26.4379255</v>
+      </c>
+      <c r="H27">
+        <v>52.875851</v>
+      </c>
+      <c r="I27">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J27">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.9078655</v>
+      </c>
+      <c r="N27">
+        <v>3.815731</v>
+      </c>
+      <c r="O27">
+        <v>0.01269552586568416</v>
+      </c>
+      <c r="P27">
+        <v>0.00849965309904553</v>
+      </c>
+      <c r="Q27">
+        <v>50.44000595302025</v>
+      </c>
+      <c r="R27">
+        <v>201.760023812081</v>
+      </c>
+      <c r="S27">
+        <v>0.0003165085535486883</v>
+      </c>
+      <c r="T27">
+        <v>0.0001427340190019749</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>26.4379255</v>
+      </c>
+      <c r="H28">
+        <v>52.875851</v>
+      </c>
+      <c r="I28">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J28">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>1.335746333333333</v>
+      </c>
+      <c r="N28">
+        <v>4.007239</v>
+      </c>
+      <c r="O28">
+        <v>0.008888468356299806</v>
+      </c>
+      <c r="P28">
+        <v>0.008926242805105003</v>
+      </c>
+      <c r="Q28">
+        <v>35.31436204756484</v>
+      </c>
+      <c r="R28">
+        <v>211.886172285389</v>
+      </c>
+      <c r="S28">
+        <v>0.0002215958828708299</v>
+      </c>
+      <c r="T28">
+        <v>0.0001498977070373815</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>26.4379255</v>
+      </c>
+      <c r="H29">
+        <v>52.875851</v>
+      </c>
+      <c r="I29">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J29">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>64.66363666666668</v>
+      </c>
+      <c r="N29">
+        <v>193.99091</v>
+      </c>
+      <c r="O29">
+        <v>0.430291795659007</v>
+      </c>
+      <c r="P29">
+        <v>0.4321204611562405</v>
+      </c>
+      <c r="Q29">
+        <v>1709.572408752402</v>
+      </c>
+      <c r="R29">
+        <v>10257.43445251441</v>
+      </c>
+      <c r="S29">
+        <v>0.01072748268080983</v>
+      </c>
+      <c r="T29">
+        <v>0.007256565579216774</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>16.6501541873884</v>
-      </c>
-      <c r="H21">
-        <v>16.6501541873884</v>
-      </c>
-      <c r="I21">
-        <v>0.01694396213742651</v>
-      </c>
-      <c r="J21">
-        <v>0.01694396213742651</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.71855827553021</v>
-      </c>
-      <c r="N21">
-        <v>1.71855827553021</v>
-      </c>
-      <c r="O21">
-        <v>0.01172431685444028</v>
-      </c>
-      <c r="P21">
-        <v>0.01172431685444028</v>
-      </c>
-      <c r="Q21">
-        <v>28.61426026759031</v>
-      </c>
-      <c r="R21">
-        <v>28.61426026759031</v>
-      </c>
-      <c r="S21">
-        <v>0.0001986563808688277</v>
-      </c>
-      <c r="T21">
-        <v>0.0001986563808688277</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>26.4379255</v>
+      </c>
+      <c r="H30">
+        <v>52.875851</v>
+      </c>
+      <c r="I30">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J30">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>80.62584666666667</v>
+      </c>
+      <c r="N30">
+        <v>241.87754</v>
+      </c>
+      <c r="O30">
+        <v>0.5365092674506414</v>
+      </c>
+      <c r="P30">
+        <v>0.5387893387795181</v>
+      </c>
+      <c r="Q30">
+        <v>2131.580127547757</v>
+      </c>
+      <c r="R30">
+        <v>12789.48076528654</v>
+      </c>
+      <c r="S30">
+        <v>0.01337556033541411</v>
+      </c>
+      <c r="T30">
+        <v>0.009047847814877658</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>26.4379255</v>
+      </c>
+      <c r="H31">
+        <v>52.875851</v>
+      </c>
+      <c r="I31">
+        <v>0.02493071629306879</v>
+      </c>
+      <c r="J31">
+        <v>0.01679292288034711</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1.745477</v>
+      </c>
+      <c r="N31">
+        <v>5.236431</v>
+      </c>
+      <c r="O31">
+        <v>0.01161494266836776</v>
+      </c>
+      <c r="P31">
+        <v>0.01166430416009097</v>
+      </c>
+      <c r="Q31">
+        <v>46.1467908879635</v>
+      </c>
+      <c r="R31">
+        <v>276.880745327781</v>
+      </c>
+      <c r="S31">
+        <v>0.000289568840425336</v>
+      </c>
+      <c r="T31">
+        <v>0.0001958777602133196</v>
       </c>
     </row>
   </sheetData>
